--- a/Dosc/WiKiModule/Audyt Energetyczny.xlsx
+++ b/Dosc/WiKiModule/Audyt Energetyczny.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bolka\Desktop\Supla Warsztat\Projekty\Regulator PID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05551870-FEE2-4E74-945B-AE9FEC2996D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEDB347-92AA-49D0-AEA3-DE1AA971A723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Moduł / Komponent</t>
   </si>
@@ -157,13 +158,73 @@
   </si>
   <si>
     <t>System musi być gotowy na takie impulsy</t>
+  </si>
+  <si>
+    <t>Typ Przewodu (50 cm dł. fizycznej)</t>
+  </si>
+  <si>
+    <t>Rezystancja pętli (1 metr drutu)</t>
+  </si>
+  <si>
+    <t>Spadek Napięcia przy 1.2A (Max obciążenie)</t>
+  </si>
+  <si>
+    <t>Napięcie docierające do ESP32</t>
+  </si>
+  <si>
+    <t>Skrętka Miedziana (1 żyła AWG 24)</t>
+  </si>
+  <si>
+    <t>~ 0.084 Ω</t>
+  </si>
+  <si>
+    <t>4.90 V (Jeszcze działa)</t>
+  </si>
+  <si>
+    <t>Skrętka CCA (Aluminiowa) (1 żyła)</t>
+  </si>
+  <si>
+    <t>~ 0.140 Ω</t>
+  </si>
+  <si>
+    <t>4.83 V (Ryzyko niestabilności)</t>
+  </si>
+  <si>
+    <t>Słabe łączenia / styki stykowe</t>
+  </si>
+  <si>
+    <t>+ 0.200 Ω do + 0.500 Ω</t>
+  </si>
+  <si>
+    <t>4.40 V (Krytyczne - Reset procesora!)</t>
+  </si>
+  <si>
+    <t>Rozwiązanie: Złączone 3 żyły skrętki</t>
+  </si>
+  <si>
+    <t>~ 0.028 Ω</t>
+  </si>
+  <si>
+    <t>4.97 V (Idealnie)</t>
+  </si>
+  <si>
+    <t>∆U = 0.03 V</t>
+  </si>
+  <si>
+    <t>∆U = 0.10 V</t>
+  </si>
+  <si>
+    <t>∆U = 0.17 V</t>
+  </si>
+  <si>
+    <t>∆U= 0.40 V do 0.60 V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +256,29 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -308,9 +392,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,6 +424,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -827,4 +941,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093EA34E-7583-46FC-B955-9A80F9695BBC}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="34.69140625" customWidth="1"/>
+    <col min="2" max="2" width="31.15234375" customWidth="1"/>
+    <col min="3" max="3" width="43.61328125" customWidth="1"/>
+    <col min="4" max="4" width="44.765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>